--- a/Calendario2022/Ejercicios/Subredes_VLSM/Ejercicio9.xlsx
+++ b/Calendario2022/Ejercicios/Subredes_VLSM/Ejercicio9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Ejercicios\Subredes_VLSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D3D88F-184B-4046-97DA-B352712AA3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC63EE3-0F0B-4BCD-991D-7AE7AD4C9811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E907E654-4C60-46F3-B029-A2C80640C796}"/>
+    <workbookView xWindow="35835" yWindow="3180" windowWidth="16770" windowHeight="11745" xr2:uid="{E907E654-4C60-46F3-B029-A2C80640C796}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -380,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F645562-F0E6-4ADD-9F0A-A2DE29747BE8}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>700</v>
       </c>
@@ -397,7 +397,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>500</v>
       </c>
@@ -406,7 +406,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>400</v>
       </c>
@@ -415,7 +415,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>100</v>
       </c>
@@ -424,7 +424,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -433,7 +433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
@@ -442,35 +442,39 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>SUM(A1:A6)</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>20</v>
+      </c>
+      <c r="C15">
+        <f>POWER(2,10)</f>
+        <v>1024</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
